--- a/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 04 - Maize Outtake/99RP265_S04_Handler.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 04 - Maize Outtake/99RP265_S04_Handler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 04 - Maize Outtake/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE62A8B-2190-2E4C-825E-6DE05CA0C383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6CB567-48A3-7749-A8F0-40A2BE39571D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-21140" windowWidth="51200" windowHeight="21140" activeTab="6" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
+    <workbookView xWindow="-9520" yWindow="-21600" windowWidth="51200" windowHeight="21600" firstSheet="1" activeTab="6" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="00 Value Source" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="107">
   <si>
     <r>
       <t xml:space="preserve">UPDATE </t>
@@ -506,6 +506,9 @@
   <si>
     <t>Booking counter Silo 15</t>
   </si>
+  <si>
+    <t>020: Maize Type Outtake 1</t>
+  </si>
 </sst>
 </file>
 
@@ -576,7 +579,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,6 +631,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -896,6 +911,8 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10862,8 +10879,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10982,6 +10999,12 @@
       <c r="I3" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="J3" s="56">
+        <v>20</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>106</v>
+      </c>
       <c r="N3" s="11">
         <f>'00 Value Source'!H1</f>
         <v>10</v>
@@ -11024,6 +11047,9 @@
       <c r="I4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="K4" s="57" t="s">
+        <v>33</v>
+      </c>
       <c r="N4" s="11" t="str">
         <f>'00 Value Source'!H2</f>
         <v>NULL</v>
@@ -11066,6 +11092,9 @@
       <c r="I5" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="K5" s="57" t="s">
+        <v>36</v>
+      </c>
       <c r="N5" s="11" t="str">
         <f>'00 Value Source'!H3</f>
         <v>NULL</v>
@@ -11108,6 +11137,9 @@
       <c r="I6" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="K6" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="N6" s="11" t="str">
         <f>'00 Value Source'!H4</f>
         <v>NULL</v>
@@ -11150,6 +11182,9 @@
       <c r="I7" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K7" s="57" t="s">
+        <v>42</v>
+      </c>
       <c r="N7" s="11" t="str">
         <f>'00 Value Source'!H5</f>
         <v>NULL</v>
@@ -11192,6 +11227,9 @@
       <c r="I8" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="K8" s="57" t="s">
+        <v>45</v>
+      </c>
       <c r="N8" s="11" t="str">
         <f>'00 Value Source'!H6</f>
         <v>NULL</v>
@@ -11234,6 +11272,9 @@
       <c r="I9" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="K9" s="57" t="s">
+        <v>48</v>
+      </c>
       <c r="N9" s="11" t="str">
         <f>'00 Value Source'!H7</f>
         <v>NULL</v>
@@ -11276,6 +11317,9 @@
       <c r="I10" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="K10" s="57" t="s">
+        <v>51</v>
+      </c>
       <c r="N10" s="11" t="str">
         <f>'00 Value Source'!H8</f>
         <v>NULL</v>
@@ -11318,6 +11362,9 @@
       <c r="I11" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="K11" s="57" t="s">
+        <v>54</v>
+      </c>
       <c r="N11" s="11" t="str">
         <f>'00 Value Source'!H9</f>
         <v>NULL</v>
@@ -11360,6 +11407,9 @@
       <c r="I12" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="K12" s="57" t="s">
+        <v>57</v>
+      </c>
       <c r="N12" s="11" t="str">
         <f>'00 Value Source'!H10</f>
         <v>NULL</v>
@@ -11402,6 +11452,9 @@
       <c r="I13" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="K13" s="57" t="s">
+        <v>60</v>
+      </c>
       <c r="N13" s="11" t="str">
         <f>'00 Value Source'!H11</f>
         <v>NULL</v>
@@ -11444,6 +11497,9 @@
       <c r="I14" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="K14" s="57" t="s">
+        <v>63</v>
+      </c>
       <c r="N14" s="11" t="str">
         <f>'00 Value Source'!H12</f>
         <v>NULL</v>
@@ -11486,6 +11542,9 @@
       <c r="I15" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="K15" s="57" t="s">
+        <v>66</v>
+      </c>
       <c r="N15" s="11" t="str">
         <f>'00 Value Source'!H13</f>
         <v>NULL</v>
@@ -11527,6 +11586,9 @@
       </c>
       <c r="I16" s="4" t="s">
         <v>71</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>69</v>
       </c>
       <c r="N16" s="11" t="str">
         <f>'00 Value Source'!H14</f>
@@ -23185,7 +23247,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -29925,7 +29987,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:T263"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -35080,14 +35142,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Value: Massafra -   | Bergamo - Malt Type Outtake 1</v>
+        <v>-- Value: Massafra -  020: Maize Type Outtake 1 | Bergamo - Malt Type Outtake 1</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$3="NULL","",IF(ISBLANK('01 Value Comparison'!$K$3),"",'01 Value Comparison'!$K$3))</f>
-        <v/>
+        <v>020: Maize Type Outtake 1</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>14</v>
@@ -35153,14 +35215,14 @@
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Value: Massafra -   | Bergamo - 012: Main Outtake 01</v>
+        <v>-- Value: Massafra -  012: Main Outtake 01 | Bergamo - 012: Main Outtake 01</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$4="NULL","",IF(ISBLANK('01 Value Comparison'!$K$4),"",'01 Value Comparison'!$K$4))</f>
-        <v/>
+        <v>012: Main Outtake 01</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>14</v>
@@ -35226,14 +35288,14 @@
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v>-- Value: Massafra -   | Bergamo - 013: Standby Outtake 01</v>
+        <v>-- Value: Massafra -  013: Standby Outtake 01 | Bergamo - 013: Standby Outtake 01</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$5="NULL","",IF(ISBLANK('01 Value Comparison'!$K$5),"",'01 Value Comparison'!$K$5))</f>
-        <v/>
+        <v>013: Standby Outtake 01</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>14</v>
@@ -35299,14 +35361,14 @@
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v>-- Value: Massafra -   | Bergamo - 014: Maize Type Outtake 2</v>
+        <v>-- Value: Massafra -  014: Maize Type Outtake 2 | Bergamo - 014: Maize Type Outtake 2</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$6="NULL","",IF(ISBLANK('01 Value Comparison'!$K$6),"",'01 Value Comparison'!$K$6))</f>
-        <v/>
+        <v>014: Maize Type Outtake 2</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>14</v>
@@ -35372,14 +35434,14 @@
     <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="str">
         <f>CONCATENATE(B22,C22,D22,E22)</f>
-        <v>-- Value: Massafra -   | Bergamo - 025: Silo Nr  Outtake 1</v>
+        <v>-- Value: Massafra -  025: Silo Nr  Outtake 1 | Bergamo - 025: Silo Nr  Outtake 1</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$7="NULL","",IF(ISBLANK('01 Value Comparison'!$K$7),"",'01 Value Comparison'!$K$7))</f>
-        <v/>
+        <v>025: Silo Nr  Outtake 1</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>14</v>
@@ -35445,14 +35507,14 @@
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="str">
         <f>CONCATENATE(B27,C27,D27,E27)</f>
-        <v>-- Value: Massafra -   | Bergamo - 026: Stanby Silo Nr  Outtake 1</v>
+        <v>-- Value: Massafra -  026: Stanby Silo Nr  Outtake 1 | Bergamo - 026: Stanby Silo Nr  Outtake 1</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$8="NULL","",IF(ISBLANK('01 Value Comparison'!$K$8),"",'01 Value Comparison'!$K$8))</f>
-        <v/>
+        <v>026: Stanby Silo Nr  Outtake 1</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>14</v>
@@ -35518,14 +35580,14 @@
     <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="str">
         <f>CONCATENATE(B32,C32,D32,E32)</f>
-        <v>-- Value: Massafra -   | Bergamo - 027: Yield Outtake 1</v>
+        <v>-- Value: Massafra -  027: Yield Outtake 1 | Bergamo - 027: Yield Outtake 1</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$9="NULL","",IF(ISBLANK('01 Value Comparison'!$K$9),"",'01 Value Comparison'!$K$9))</f>
-        <v/>
+        <v>027: Yield Outtake 1</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>14</v>
@@ -35591,14 +35653,14 @@
     <row r="37" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="str">
         <f>CONCATENATE(B37,C37,D37,E37)</f>
-        <v>-- Value: Massafra -   | Bergamo - 028: Yield Stanby Outtake 1</v>
+        <v>-- Value: Massafra -  028: Yield Stanby Outtake 1 | Bergamo - 028: Yield Stanby Outtake 1</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$10="NULL","",IF(ISBLANK('01 Value Comparison'!$K$10),"",'01 Value Comparison'!$K$10))</f>
-        <v/>
+        <v>028: Yield Stanby Outtake 1</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>14</v>
@@ -35664,14 +35726,14 @@
     <row r="42" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="str">
         <f>CONCATENATE(B42,C42,D42,E42)</f>
-        <v>-- Value: Massafra -   | Bergamo - 031: Main Outtake 02</v>
+        <v>-- Value: Massafra -  031: Main Outtake 02 | Bergamo - 031: Main Outtake 02</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$11="NULL","",IF(ISBLANK('01 Value Comparison'!$K$11),"",'01 Value Comparison'!$K$11))</f>
-        <v/>
+        <v>031: Main Outtake 02</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>14</v>
@@ -35737,14 +35799,14 @@
     <row r="47" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="str">
         <f>CONCATENATE(B47,C47,D47,E47)</f>
-        <v>-- Value: Massafra -   | Bergamo - 034: Standby Outtake 02</v>
+        <v>-- Value: Massafra -  034: Standby Outtake 02 | Bergamo - 034: Standby Outtake 02</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$12="NULL","",IF(ISBLANK('01 Value Comparison'!$K$12),"",'01 Value Comparison'!$K$12))</f>
-        <v/>
+        <v>034: Standby Outtake 02</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>14</v>
@@ -35810,14 +35872,14 @@
     <row r="52" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="str">
         <f>CONCATENATE(B52,C52,D52,E52)</f>
-        <v>-- Value: Massafra -   | Bergamo - 037: Silo Nr  Outtake 2</v>
+        <v>-- Value: Massafra -  037: Silo Nr  Outtake 2 | Bergamo - 037: Silo Nr  Outtake 2</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$13="NULL","",IF(ISBLANK('01 Value Comparison'!$K$13),"",'01 Value Comparison'!$K$13))</f>
-        <v/>
+        <v>037: Silo Nr  Outtake 2</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>14</v>
@@ -35883,14 +35945,14 @@
     <row r="57" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="38" t="str">
         <f>CONCATENATE(B57,C57,D57,E57)</f>
-        <v>-- Value: Massafra -   | Bergamo - 038: Stanby Silo Nr  Outtake 2</v>
+        <v>-- Value: Massafra -  038: Stanby Silo Nr  Outtake 2 | Bergamo - 038: Stanby Silo Nr  Outtake 2</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C57" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$14="NULL","",IF(ISBLANK('01 Value Comparison'!$K$14),"",'01 Value Comparison'!$K$14))</f>
-        <v/>
+        <v>038: Stanby Silo Nr  Outtake 2</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>14</v>
@@ -35956,14 +36018,14 @@
     <row r="62" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="38" t="str">
         <f>CONCATENATE(B62,C62,D62,E62)</f>
-        <v>-- Value: Massafra -   | Bergamo - 043: Yield Outtake 2</v>
+        <v>-- Value: Massafra -  043: Yield Outtake 2 | Bergamo - 043: Yield Outtake 2</v>
       </c>
       <c r="B62" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C62" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$15="NULL","",IF(ISBLANK('01 Value Comparison'!$K$15),"",'01 Value Comparison'!$K$15))</f>
-        <v/>
+        <v>043: Yield Outtake 2</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>14</v>
@@ -36029,14 +36091,14 @@
     <row r="67" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="38" t="str">
         <f>CONCATENATE(B67,C67,D67,E67)</f>
-        <v>-- Value: Massafra -   | Bergamo - 046: Yield Stanby Outtake 2</v>
+        <v>-- Value: Massafra -  046: Yield Stanby Outtake 2 | Bergamo - 046: Yield Stanby Outtake 2</v>
       </c>
       <c r="B67" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C67" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$16="NULL","",IF(ISBLANK('01 Value Comparison'!$K$16),"",'01 Value Comparison'!$K$16))</f>
-        <v/>
+        <v>046: Yield Stanby Outtake 2</v>
       </c>
       <c r="D67" s="25" t="s">
         <v>14</v>
